--- a/Daily/Soil/Soil_data_2025-03-26_1.xlsx
+++ b/Daily/Soil/Soil_data_2025-03-26_1.xlsx
@@ -1,24 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lsuagctr-my.sharepoint.com/personal/magyiri_agcenter_lsu_edu/Documents/LSU/Zentra Cloud data/Zentra_Cloud_Data/LaCADIAN/Daily/Soil/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_1220BED48F79A89360642C52EA7BD2728A4AE548" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDEB6B38-CFED-4B94-93A8-7CE3CD0A7384}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>water_content_5cm</t>
+  </si>
+  <si>
+    <t>soil_temperature_5cm</t>
+  </si>
+  <si>
+    <t>saturation_extract_EC_5cm</t>
+  </si>
+  <si>
+    <t>matric_potential_5cm1</t>
+  </si>
+  <si>
+    <t>soil_temperature_5cm1</t>
+  </si>
+  <si>
+    <t>water_content_20cm</t>
+  </si>
+  <si>
+    <t>soil_temperature_20cm</t>
+  </si>
+  <si>
+    <t>saturation_extract_EC_20cm</t>
+  </si>
+  <si>
+    <t>matric_potential_20cm1</t>
+  </si>
+  <si>
+    <t>soil_temperature_20cm1</t>
+  </si>
+  <si>
+    <t>water_content_50cm</t>
+  </si>
+  <si>
+    <t>soil_temperature_50cm</t>
+  </si>
+  <si>
+    <t>saturation_extract_EC_50cm</t>
+  </si>
+  <si>
+    <t>matric_potential_50cm1</t>
+  </si>
+  <si>
+    <t>soil_temperature_50cm1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd HH:mm:ss UTC"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss\ \U\T\C"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,13 +126,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -111,7 +178,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -145,6 +212,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -179,9 +247,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -354,110 +423,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>timestamp</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>water_content_5cm</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>soil_temperature_5cm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>saturation_extract_EC_5cm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>matric_potential_5cm1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>soil_temperature_5cm1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>water_content_20cm</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>soil_temperature_20cm</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>saturation_extract_EC_20cm</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>matric_potential_20cm1</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>soil_temperature_20cm1</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>water_content_50cm</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>soil_temperature_50cm</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>saturation_extract_EC_50cm</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>matric_potential_50cm1</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>soil_temperature_50cm1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45742.20833333333</v>
+        <v>45742.208333333328</v>
       </c>
       <c r="B2">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C2">
         <v>19.8</v>
       </c>
       <c r="D2">
-        <v>2.227</v>
+        <v>2.2269999999999999</v>
       </c>
       <c r="E2">
         <v>-0.1</v>
@@ -466,13 +503,13 @@
         <v>19.5</v>
       </c>
       <c r="G2">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H2">
         <v>19.8</v>
       </c>
       <c r="I2">
-        <v>2.228</v>
+        <v>2.2280000000000002</v>
       </c>
       <c r="J2">
         <v>-0.2</v>
@@ -496,33 +533,33 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45742.21875</v>
       </c>
       <c r="B3">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C3">
         <v>19.7</v>
       </c>
       <c r="D3">
-        <v>2.228</v>
+        <v>2.2280000000000002</v>
       </c>
       <c r="E3">
         <v>-0.1</v>
       </c>
       <c r="F3">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="G3">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H3">
         <v>19.8</v>
       </c>
       <c r="I3">
-        <v>2.228</v>
+        <v>2.2280000000000002</v>
       </c>
       <c r="J3">
         <v>-0.2</v>
@@ -534,10 +571,10 @@
         <v>0.4</v>
       </c>
       <c r="M3">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="N3">
-        <v>3.808</v>
+        <v>3.8079999999999998</v>
       </c>
       <c r="O3">
         <v>-0.1</v>
@@ -546,33 +583,33 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45742.22916666667</v>
+        <v>45742.229166666672</v>
       </c>
       <c r="B4">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C4">
         <v>19.7</v>
       </c>
       <c r="D4">
-        <v>2.229</v>
+        <v>2.2290000000000001</v>
       </c>
       <c r="E4">
         <v>-0.1</v>
       </c>
       <c r="F4">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="G4">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H4">
         <v>19.8</v>
       </c>
       <c r="I4">
-        <v>2.228</v>
+        <v>2.2280000000000002</v>
       </c>
       <c r="J4">
         <v>-0.2</v>
@@ -584,10 +621,10 @@
         <v>0.4</v>
       </c>
       <c r="M4">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="N4">
-        <v>3.817</v>
+        <v>3.8170000000000002</v>
       </c>
       <c r="O4">
         <v>-0.1</v>
@@ -596,33 +633,33 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45742.23958333333</v>
+        <v>45742.239583333328</v>
       </c>
       <c r="B5">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C5">
         <v>19.7</v>
       </c>
       <c r="D5">
-        <v>2.228</v>
+        <v>2.2280000000000002</v>
       </c>
       <c r="E5">
         <v>-0.1</v>
       </c>
       <c r="F5">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="G5">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H5">
         <v>19.7</v>
       </c>
       <c r="I5">
-        <v>2.229</v>
+        <v>2.2290000000000001</v>
       </c>
       <c r="J5">
         <v>-0.2</v>
@@ -634,10 +671,10 @@
         <v>0.4</v>
       </c>
       <c r="M5">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="N5">
-        <v>3.817</v>
+        <v>3.8170000000000002</v>
       </c>
       <c r="O5">
         <v>-0.1</v>
@@ -646,33 +683,33 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45742.25</v>
       </c>
       <c r="B6">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C6">
         <v>19.7</v>
       </c>
       <c r="D6">
-        <v>2.224</v>
+        <v>2.2240000000000002</v>
       </c>
       <c r="E6">
         <v>-0.1</v>
       </c>
       <c r="F6">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="G6">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H6">
         <v>19.7</v>
       </c>
       <c r="I6">
-        <v>2.229</v>
+        <v>2.2290000000000001</v>
       </c>
       <c r="J6">
         <v>-0.2</v>
@@ -684,10 +721,10 @@
         <v>0.4</v>
       </c>
       <c r="M6">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="N6">
-        <v>3.817</v>
+        <v>3.8170000000000002</v>
       </c>
       <c r="O6">
         <v>-0.1</v>
@@ -696,27 +733,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45742.26041666667</v>
+        <v>45742.260416666672</v>
       </c>
       <c r="B7">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C7">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D7">
-        <v>2.229</v>
+        <v>2.2290000000000001</v>
       </c>
       <c r="E7">
         <v>-0.1</v>
       </c>
       <c r="F7">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="G7">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H7">
         <v>19.7</v>
@@ -734,10 +771,10 @@
         <v>0.4</v>
       </c>
       <c r="M7">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="N7">
-        <v>3.818</v>
+        <v>3.8180000000000001</v>
       </c>
       <c r="O7">
         <v>-0.1</v>
@@ -746,33 +783,33 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45742.27083333333</v>
+        <v>45742.270833333328</v>
       </c>
       <c r="B8">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C8">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D8">
-        <v>2.224</v>
+        <v>2.2240000000000002</v>
       </c>
       <c r="E8">
         <v>-0.1</v>
       </c>
       <c r="F8">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="G8">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H8">
         <v>19.7</v>
       </c>
       <c r="I8">
-        <v>2.229</v>
+        <v>2.2290000000000001</v>
       </c>
       <c r="J8">
         <v>-0.2</v>
@@ -784,10 +821,10 @@
         <v>0.4</v>
       </c>
       <c r="M8">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="N8">
-        <v>3.818</v>
+        <v>3.8180000000000001</v>
       </c>
       <c r="O8">
         <v>-0.1</v>
@@ -796,30 +833,30 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45742.28125</v>
       </c>
       <c r="B9">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C9">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D9">
-        <v>2.224</v>
+        <v>2.2240000000000002</v>
       </c>
       <c r="E9">
         <v>-0.1</v>
       </c>
       <c r="F9">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="G9">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H9">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="I9">
         <v>2.226</v>
@@ -828,16 +865,16 @@
         <v>-0.2</v>
       </c>
       <c r="K9">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L9">
         <v>0.4</v>
       </c>
       <c r="M9">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="N9">
-        <v>3.817</v>
+        <v>3.8170000000000002</v>
       </c>
       <c r="O9">
         <v>-0.1</v>
@@ -846,30 +883,30 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45742.29166666667</v>
+        <v>45742.291666666672</v>
       </c>
       <c r="B10">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C10">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D10">
-        <v>2.224</v>
+        <v>2.2240000000000002</v>
       </c>
       <c r="E10">
         <v>-0.1</v>
       </c>
       <c r="F10">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="G10">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H10">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="I10">
         <v>2.226</v>
@@ -878,16 +915,16 @@
         <v>-0.2</v>
       </c>
       <c r="K10">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L10">
         <v>0.4</v>
       </c>
       <c r="M10">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="N10">
-        <v>3.818</v>
+        <v>3.8180000000000001</v>
       </c>
       <c r="O10">
         <v>-0.1</v>
@@ -896,48 +933,48 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45742.30208333333</v>
+        <v>45742.302083333328</v>
       </c>
       <c r="B11">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C11">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D11">
-        <v>2.224</v>
+        <v>2.2240000000000002</v>
       </c>
       <c r="E11">
         <v>-0.1</v>
       </c>
       <c r="F11">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="G11">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H11">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="I11">
-        <v>2.232</v>
+        <v>2.2320000000000002</v>
       </c>
       <c r="J11">
         <v>-0.2</v>
       </c>
       <c r="K11">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L11">
         <v>0.4</v>
       </c>
       <c r="M11">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="N11">
-        <v>3.818</v>
+        <v>3.8180000000000001</v>
       </c>
       <c r="O11">
         <v>-0.1</v>
@@ -946,18 +983,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45742.3125</v>
       </c>
       <c r="B12">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C12">
         <v>19.5</v>
       </c>
       <c r="D12">
-        <v>2.225</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="E12">
         <v>-0.1</v>
@@ -966,10 +1003,10 @@
         <v>19.3</v>
       </c>
       <c r="G12">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H12">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="I12">
         <v>2.226</v>
@@ -978,13 +1015,13 @@
         <v>-0.2</v>
       </c>
       <c r="K12">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L12">
         <v>0.4</v>
       </c>
       <c r="M12">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="N12">
         <v>3.819</v>
@@ -993,15 +1030,15 @@
         <v>-0.1</v>
       </c>
       <c r="P12">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45742.32291666667</v>
+        <v>45742.322916666672</v>
       </c>
       <c r="B13">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C13">
         <v>19.5</v>
@@ -1016,10 +1053,10 @@
         <v>19.2</v>
       </c>
       <c r="G13">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H13">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="I13">
         <v>2.226</v>
@@ -1028,33 +1065,33 @@
         <v>-0.2</v>
       </c>
       <c r="K13">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L13">
         <v>0.4</v>
       </c>
       <c r="M13">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="N13">
-        <v>3.818</v>
+        <v>3.8180000000000001</v>
       </c>
       <c r="O13">
         <v>-0.1</v>
       </c>
       <c r="P13">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45742.33333333333</v>
+        <v>45742.333333333328</v>
       </c>
       <c r="B14">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C14">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="D14">
         <v>2.226</v>
@@ -1066,10 +1103,10 @@
         <v>19.2</v>
       </c>
       <c r="G14">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H14">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="I14">
         <v>2.226</v>
@@ -1078,7 +1115,7 @@
         <v>-0.2</v>
       </c>
       <c r="K14">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L14">
         <v>0.4</v>
@@ -1087,42 +1124,42 @@
         <v>18.2</v>
       </c>
       <c r="N14">
-        <v>3.817</v>
+        <v>3.8170000000000002</v>
       </c>
       <c r="O14">
         <v>-0.1</v>
       </c>
       <c r="P14">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45742.34375</v>
       </c>
       <c r="B15">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C15">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="D15">
-        <v>2.227</v>
+        <v>2.2269999999999999</v>
       </c>
       <c r="E15">
         <v>-0.1</v>
       </c>
       <c r="F15">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="G15">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H15">
         <v>19.5</v>
       </c>
       <c r="I15">
-        <v>2.227</v>
+        <v>2.2269999999999999</v>
       </c>
       <c r="J15">
         <v>-0.2</v>
@@ -1137,42 +1174,42 @@
         <v>18.2</v>
       </c>
       <c r="N15">
-        <v>3.816</v>
+        <v>3.8159999999999998</v>
       </c>
       <c r="O15">
         <v>-0.1</v>
       </c>
       <c r="P15">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45742.35416666667</v>
+        <v>45742.354166666672</v>
       </c>
       <c r="B16">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C16">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="D16">
-        <v>2.227</v>
+        <v>2.2269999999999999</v>
       </c>
       <c r="E16">
         <v>-0.1</v>
       </c>
       <c r="F16">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="G16">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H16">
         <v>19.5</v>
       </c>
       <c r="I16">
-        <v>2.227</v>
+        <v>2.2269999999999999</v>
       </c>
       <c r="J16">
         <v>-0.2</v>
@@ -1187,42 +1224,42 @@
         <v>18.2</v>
       </c>
       <c r="N16">
-        <v>3.815</v>
+        <v>3.8149999999999999</v>
       </c>
       <c r="O16">
         <v>-0.1</v>
       </c>
       <c r="P16">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45742.36458333333</v>
+        <v>45742.364583333328</v>
       </c>
       <c r="B17">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C17">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="D17">
-        <v>2.227</v>
+        <v>2.2269999999999999</v>
       </c>
       <c r="E17">
         <v>-0.1</v>
       </c>
       <c r="F17">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="G17">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H17">
         <v>19.5</v>
       </c>
       <c r="I17">
-        <v>2.228</v>
+        <v>2.2280000000000002</v>
       </c>
       <c r="J17">
         <v>-0.2</v>
@@ -1237,42 +1274,42 @@
         <v>18.2</v>
       </c>
       <c r="N17">
-        <v>3.816</v>
+        <v>3.8159999999999998</v>
       </c>
       <c r="O17">
         <v>-0.1</v>
       </c>
       <c r="P17">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45742.375</v>
       </c>
       <c r="B18">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C18">
         <v>19.3</v>
       </c>
       <c r="D18">
-        <v>2.223</v>
+        <v>2.2229999999999999</v>
       </c>
       <c r="E18">
         <v>-0.1</v>
       </c>
       <c r="F18">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="G18">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H18">
         <v>19.5</v>
       </c>
       <c r="I18">
-        <v>2.227</v>
+        <v>2.2269999999999999</v>
       </c>
       <c r="J18">
         <v>-0.2</v>
@@ -1287,42 +1324,42 @@
         <v>18.2</v>
       </c>
       <c r="N18">
-        <v>3.815</v>
+        <v>3.8149999999999999</v>
       </c>
       <c r="O18">
         <v>-0.1</v>
       </c>
       <c r="P18">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45742.38541666667</v>
+        <v>45742.385416666672</v>
       </c>
       <c r="B19">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C19">
         <v>19.3</v>
       </c>
       <c r="D19">
-        <v>2.228</v>
+        <v>2.2280000000000002</v>
       </c>
       <c r="E19">
         <v>-0.1</v>
       </c>
       <c r="F19">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="G19">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H19">
         <v>19.5</v>
       </c>
       <c r="I19">
-        <v>2.228</v>
+        <v>2.2280000000000002</v>
       </c>
       <c r="J19">
         <v>-0.2</v>
@@ -1337,48 +1374,48 @@
         <v>18.2</v>
       </c>
       <c r="N19">
-        <v>3.816</v>
+        <v>3.8159999999999998</v>
       </c>
       <c r="O19">
         <v>-0.1</v>
       </c>
       <c r="P19">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45742.39583333333</v>
+        <v>45742.395833333328</v>
       </c>
       <c r="B20">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C20">
         <v>19.3</v>
       </c>
       <c r="D20">
-        <v>2.223</v>
+        <v>2.2229999999999999</v>
       </c>
       <c r="E20">
         <v>-0.1</v>
       </c>
       <c r="F20">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="G20">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H20">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="I20">
-        <v>2.229</v>
+        <v>2.2290000000000001</v>
       </c>
       <c r="J20">
         <v>-0.2</v>
       </c>
       <c r="K20">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="L20">
         <v>0.4</v>
@@ -1387,48 +1424,48 @@
         <v>18.2</v>
       </c>
       <c r="N20">
-        <v>3.816</v>
+        <v>3.8159999999999998</v>
       </c>
       <c r="O20">
         <v>-0.1</v>
       </c>
       <c r="P20">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45742.40625</v>
       </c>
       <c r="B21">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C21">
         <v>19.3</v>
       </c>
       <c r="D21">
-        <v>2.223</v>
+        <v>2.2229999999999999</v>
       </c>
       <c r="E21">
         <v>-0.1</v>
       </c>
       <c r="F21">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="G21">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H21">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="I21">
-        <v>2.229</v>
+        <v>2.2290000000000001</v>
       </c>
       <c r="J21">
         <v>-0.2</v>
       </c>
       <c r="K21">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="L21">
         <v>0.4</v>
@@ -1437,48 +1474,48 @@
         <v>18.2</v>
       </c>
       <c r="N21">
-        <v>3.816</v>
+        <v>3.8159999999999998</v>
       </c>
       <c r="O21">
         <v>-0.1</v>
       </c>
       <c r="P21">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45742.41666666667</v>
+        <v>45742.416666666672</v>
       </c>
       <c r="B22">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C22">
         <v>19.3</v>
       </c>
       <c r="D22">
-        <v>2.223</v>
+        <v>2.2229999999999999</v>
       </c>
       <c r="E22">
         <v>-0.1</v>
       </c>
       <c r="F22">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="G22">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H22">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="I22">
-        <v>2.229</v>
+        <v>2.2290000000000001</v>
       </c>
       <c r="J22">
         <v>-0.2</v>
       </c>
       <c r="K22">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="L22">
         <v>0.4</v>
@@ -1487,39 +1524,39 @@
         <v>18.2</v>
       </c>
       <c r="N22">
-        <v>3.816</v>
+        <v>3.8159999999999998</v>
       </c>
       <c r="O22">
         <v>-0.1</v>
       </c>
       <c r="P22">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45742.42708333333</v>
+        <v>45742.427083333328</v>
       </c>
       <c r="B23">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C23">
         <v>19.3</v>
       </c>
       <c r="D23">
-        <v>2.223</v>
+        <v>2.2229999999999999</v>
       </c>
       <c r="E23">
         <v>-0.1</v>
       </c>
       <c r="F23">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="G23">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H23">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="I23">
         <v>2.23</v>
@@ -1528,7 +1565,7 @@
         <v>-0.2</v>
       </c>
       <c r="K23">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="L23">
         <v>0.4</v>
@@ -1537,27 +1574,27 @@
         <v>18.2</v>
       </c>
       <c r="N23">
-        <v>3.816</v>
+        <v>3.8159999999999998</v>
       </c>
       <c r="O23">
         <v>-0.1</v>
       </c>
       <c r="P23">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45742.4375</v>
       </c>
       <c r="B24">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C24">
         <v>19.3</v>
       </c>
       <c r="D24">
-        <v>2.223</v>
+        <v>2.2229999999999999</v>
       </c>
       <c r="E24">
         <v>-0.1</v>
@@ -1566,19 +1603,19 @@
         <v>19</v>
       </c>
       <c r="G24">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H24">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="I24">
-        <v>2.225</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="J24">
         <v>-0.2</v>
       </c>
       <c r="K24">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="L24">
         <v>0.4</v>
@@ -1587,27 +1624,27 @@
         <v>18.2</v>
       </c>
       <c r="N24">
-        <v>3.816</v>
+        <v>3.8159999999999998</v>
       </c>
       <c r="O24">
         <v>-0.1</v>
       </c>
       <c r="P24">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45742.44791666667</v>
+        <v>45742.447916666672</v>
       </c>
       <c r="B25">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C25">
         <v>19.2</v>
       </c>
       <c r="D25">
-        <v>2.225</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="E25">
         <v>-0.1</v>
@@ -1616,19 +1653,19 @@
         <v>19</v>
       </c>
       <c r="G25">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H25">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="I25">
-        <v>2.231</v>
+        <v>2.2309999999999999</v>
       </c>
       <c r="J25">
         <v>-0.2</v>
       </c>
       <c r="K25">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="L25">
         <v>0.4</v>
@@ -1637,7 +1674,7 @@
         <v>18.2</v>
       </c>
       <c r="N25">
-        <v>3.816</v>
+        <v>3.8159999999999998</v>
       </c>
       <c r="O25">
         <v>-0.1</v>
@@ -1646,39 +1683,39 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45742.45833333333</v>
+        <v>45742.458333333328</v>
       </c>
       <c r="B26">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C26">
         <v>19.2</v>
       </c>
       <c r="D26">
-        <v>2.224</v>
+        <v>2.2240000000000002</v>
       </c>
       <c r="E26">
         <v>-0.1</v>
       </c>
       <c r="F26">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="G26">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H26">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="I26">
-        <v>2.225</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="J26">
         <v>-0.2</v>
       </c>
       <c r="K26">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="L26">
         <v>0.4</v>
@@ -1687,7 +1724,7 @@
         <v>18.2</v>
       </c>
       <c r="N26">
-        <v>3.816</v>
+        <v>3.8159999999999998</v>
       </c>
       <c r="O26">
         <v>-0.1</v>
@@ -1696,18 +1733,18 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45742.46875</v>
       </c>
       <c r="B27">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C27">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D27">
-        <v>2.231</v>
+        <v>2.2309999999999999</v>
       </c>
       <c r="E27">
         <v>-0.1</v>
@@ -1716,7 +1753,7 @@
         <v>18.8</v>
       </c>
       <c r="G27">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H27">
         <v>19.3</v>
@@ -1737,7 +1774,7 @@
         <v>18.3</v>
       </c>
       <c r="N27">
-        <v>3.815</v>
+        <v>3.8149999999999999</v>
       </c>
       <c r="O27">
         <v>-0.1</v>
@@ -1746,15 +1783,15 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45742.47916666667</v>
+        <v>45742.479166666672</v>
       </c>
       <c r="B28">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C28">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D28">
         <v>2.226</v>
@@ -1766,13 +1803,13 @@
         <v>18.8</v>
       </c>
       <c r="G28">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H28">
         <v>19.3</v>
       </c>
       <c r="I28">
-        <v>2.227</v>
+        <v>2.2269999999999999</v>
       </c>
       <c r="J28">
         <v>-0.2</v>
@@ -1787,7 +1824,7 @@
         <v>18.3</v>
       </c>
       <c r="N28">
-        <v>3.815</v>
+        <v>3.8149999999999999</v>
       </c>
       <c r="O28">
         <v>-0.1</v>
@@ -1796,18 +1833,18 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45742.48958333333</v>
+        <v>45742.489583333328</v>
       </c>
       <c r="B29">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C29">
         <v>19</v>
       </c>
       <c r="D29">
-        <v>2.227</v>
+        <v>2.2269999999999999</v>
       </c>
       <c r="E29">
         <v>-0.1</v>
@@ -1816,7 +1853,7 @@
         <v>18.7</v>
       </c>
       <c r="G29">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H29">
         <v>19.3</v>
@@ -1837,7 +1874,7 @@
         <v>18.3</v>
       </c>
       <c r="N29">
-        <v>3.816</v>
+        <v>3.8159999999999998</v>
       </c>
       <c r="O29">
         <v>-0.1</v>
@@ -1846,27 +1883,27 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45742.5</v>
       </c>
       <c r="B30">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C30">
         <v>19</v>
       </c>
       <c r="D30">
-        <v>2.228</v>
+        <v>2.2280000000000002</v>
       </c>
       <c r="E30">
         <v>-0.1</v>
       </c>
       <c r="F30">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="G30">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H30">
         <v>19.3</v>
@@ -1887,7 +1924,7 @@
         <v>18.3</v>
       </c>
       <c r="N30">
-        <v>3.816</v>
+        <v>3.8159999999999998</v>
       </c>
       <c r="O30">
         <v>-0.1</v>
@@ -1896,18 +1933,18 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45742.51041666667</v>
+        <v>45742.510416666672</v>
       </c>
       <c r="B31">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C31">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D31">
-        <v>2.228</v>
+        <v>2.2280000000000002</v>
       </c>
       <c r="E31">
         <v>-0.1</v>
@@ -1916,13 +1953,13 @@
         <v>18.5</v>
       </c>
       <c r="G31">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H31">
         <v>19.3</v>
       </c>
       <c r="I31">
-        <v>2.227</v>
+        <v>2.2269999999999999</v>
       </c>
       <c r="J31">
         <v>-0.2</v>
@@ -1937,7 +1974,7 @@
         <v>18.3</v>
       </c>
       <c r="N31">
-        <v>3.816</v>
+        <v>3.8159999999999998</v>
       </c>
       <c r="O31">
         <v>-0.1</v>
@@ -1946,12 +1983,12 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45742.52083333333</v>
+        <v>45742.520833333328</v>
       </c>
       <c r="B32">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C32">
         <v>18.8</v>
@@ -1966,13 +2003,13 @@
         <v>18.5</v>
       </c>
       <c r="G32">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H32">
         <v>19.2</v>
       </c>
       <c r="I32">
-        <v>2.227</v>
+        <v>2.2269999999999999</v>
       </c>
       <c r="J32">
         <v>-0.2</v>
@@ -1987,7 +2024,7 @@
         <v>18.3</v>
       </c>
       <c r="N32">
-        <v>3.818</v>
+        <v>3.8180000000000001</v>
       </c>
       <c r="O32">
         <v>-0.1</v>
@@ -1996,33 +2033,33 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45742.53125</v>
       </c>
       <c r="B33">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C33">
         <v>18.8</v>
       </c>
       <c r="D33">
-        <v>2.229</v>
+        <v>2.2290000000000001</v>
       </c>
       <c r="E33">
         <v>-0.1</v>
       </c>
       <c r="F33">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="G33">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H33">
         <v>19.2</v>
       </c>
       <c r="I33">
-        <v>2.227</v>
+        <v>2.2269999999999999</v>
       </c>
       <c r="J33">
         <v>-0.2</v>
@@ -2037,7 +2074,7 @@
         <v>18.3</v>
       </c>
       <c r="N33">
-        <v>3.818</v>
+        <v>3.8180000000000001</v>
       </c>
       <c r="O33">
         <v>-0.1</v>
@@ -2046,33 +2083,33 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45742.54166666667</v>
+        <v>45742.541666666672</v>
       </c>
       <c r="B34">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C34">
         <v>18.8</v>
       </c>
       <c r="D34">
-        <v>2.229</v>
+        <v>2.2290000000000001</v>
       </c>
       <c r="E34">
         <v>-0.1</v>
       </c>
       <c r="F34">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="G34">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H34">
         <v>19.2</v>
       </c>
       <c r="I34">
-        <v>2.227</v>
+        <v>2.2269999999999999</v>
       </c>
       <c r="J34">
         <v>-0.2</v>
@@ -2081,7 +2118,7 @@
         <v>19.2</v>
       </c>
       <c r="L34">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M34">
         <v>18.3</v>
@@ -2096,18 +2133,18 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45742.55208333333</v>
+        <v>45742.552083333328</v>
       </c>
       <c r="B35">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C35">
         <v>18.8</v>
       </c>
       <c r="D35">
-        <v>2.229</v>
+        <v>2.2290000000000001</v>
       </c>
       <c r="E35">
         <v>-0.1</v>
@@ -2116,22 +2153,22 @@
         <v>18.5</v>
       </c>
       <c r="G35">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H35">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="I35">
-        <v>2.228</v>
+        <v>2.2280000000000002</v>
       </c>
       <c r="J35">
         <v>-0.2</v>
       </c>
       <c r="K35">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="L35">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M35">
         <v>18.3</v>
@@ -2146,18 +2183,18 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45742.5625</v>
       </c>
       <c r="B36">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C36">
         <v>18.8</v>
       </c>
       <c r="D36">
-        <v>2.229</v>
+        <v>2.2290000000000001</v>
       </c>
       <c r="E36">
         <v>-0.1</v>
@@ -2166,22 +2203,22 @@
         <v>18.5</v>
       </c>
       <c r="G36">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H36">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="I36">
-        <v>2.229</v>
+        <v>2.2290000000000001</v>
       </c>
       <c r="J36">
         <v>-0.2</v>
       </c>
       <c r="K36">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="L36">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M36">
         <v>18.3</v>
@@ -2196,18 +2233,18 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45742.57291666667</v>
+        <v>45742.572916666672</v>
       </c>
       <c r="B37">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C37">
         <v>18.8</v>
       </c>
       <c r="D37">
-        <v>2.223</v>
+        <v>2.2229999999999999</v>
       </c>
       <c r="E37">
         <v>-0.1</v>
@@ -2216,22 +2253,22 @@
         <v>18.5</v>
       </c>
       <c r="G37">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H37">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="I37">
-        <v>2.223</v>
+        <v>2.2229999999999999</v>
       </c>
       <c r="J37">
         <v>-0.2</v>
       </c>
       <c r="K37">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="L37">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M37">
         <v>18.3</v>
@@ -2246,42 +2283,42 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45742.58333333333</v>
+        <v>45742.583333333328</v>
       </c>
       <c r="B38">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C38">
         <v>18.8</v>
       </c>
       <c r="D38">
-        <v>2.223</v>
+        <v>2.2229999999999999</v>
       </c>
       <c r="E38">
         <v>-0.1</v>
       </c>
       <c r="F38">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="G38">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H38">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="I38">
-        <v>2.223</v>
+        <v>2.2229999999999999</v>
       </c>
       <c r="J38">
         <v>-0.2</v>
       </c>
       <c r="K38">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="L38">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M38">
         <v>18.3</v>
@@ -2296,42 +2333,42 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45742.59375</v>
       </c>
       <c r="B39">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C39">
         <v>18.8</v>
       </c>
       <c r="D39">
-        <v>2.224</v>
+        <v>2.2240000000000002</v>
       </c>
       <c r="E39">
         <v>-0.1</v>
       </c>
       <c r="F39">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="G39">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H39">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="I39">
-        <v>2.228</v>
+        <v>2.2280000000000002</v>
       </c>
       <c r="J39">
         <v>-0.2</v>
       </c>
       <c r="K39">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="L39">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M39">
         <v>18.3</v>
@@ -2346,12 +2383,12 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45742.60416666667</v>
+        <v>45742.604166666672</v>
       </c>
       <c r="B40">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C40">
         <v>18.8</v>
@@ -2366,22 +2403,22 @@
         <v>18.7</v>
       </c>
       <c r="G40">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H40">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="I40">
-        <v>2.227</v>
+        <v>2.2269999999999999</v>
       </c>
       <c r="J40">
         <v>-0.2</v>
       </c>
       <c r="K40">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="L40">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M40">
         <v>18.3</v>
@@ -2396,18 +2433,18 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45742.61458333333</v>
+        <v>45742.614583333328</v>
       </c>
       <c r="B41">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C41">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D41">
-        <v>2.217</v>
+        <v>2.2170000000000001</v>
       </c>
       <c r="E41">
         <v>-0.1</v>
@@ -2416,13 +2453,13 @@
         <v>18.8</v>
       </c>
       <c r="G41">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H41">
         <v>19</v>
       </c>
       <c r="I41">
-        <v>2.228</v>
+        <v>2.2280000000000002</v>
       </c>
       <c r="J41">
         <v>-0.2</v>
@@ -2431,7 +2468,7 @@
         <v>19</v>
       </c>
       <c r="L41">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M41">
         <v>18.3</v>
@@ -2446,33 +2483,33 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45742.625</v>
       </c>
       <c r="B42">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C42">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D42">
-        <v>2.217</v>
+        <v>2.2170000000000001</v>
       </c>
       <c r="E42">
         <v>-0.1</v>
       </c>
       <c r="F42">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="G42">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H42">
         <v>19</v>
       </c>
       <c r="I42">
-        <v>2.228</v>
+        <v>2.2280000000000002</v>
       </c>
       <c r="J42">
         <v>-0.2</v>
@@ -2481,7 +2518,7 @@
         <v>19</v>
       </c>
       <c r="L42">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M42">
         <v>18.3</v>
@@ -2496,33 +2533,33 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45742.63541666667</v>
+        <v>45742.635416666672</v>
       </c>
       <c r="B43">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C43">
         <v>19</v>
       </c>
       <c r="D43">
-        <v>2.216</v>
+        <v>2.2160000000000002</v>
       </c>
       <c r="E43">
         <v>-0.1</v>
       </c>
       <c r="F43">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="G43">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H43">
         <v>19</v>
       </c>
       <c r="I43">
-        <v>2.227</v>
+        <v>2.2269999999999999</v>
       </c>
       <c r="J43">
         <v>-0.2</v>
@@ -2531,7 +2568,7 @@
         <v>19</v>
       </c>
       <c r="L43">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M43">
         <v>18.3</v>
@@ -2546,18 +2583,18 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45742.64583333333</v>
+        <v>45742.645833333328</v>
       </c>
       <c r="B44">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C44">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D44">
-        <v>2.216</v>
+        <v>2.2160000000000002</v>
       </c>
       <c r="E44">
         <v>-0.1</v>
@@ -2566,13 +2603,13 @@
         <v>19.2</v>
       </c>
       <c r="G44">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H44">
         <v>19</v>
       </c>
       <c r="I44">
-        <v>2.227</v>
+        <v>2.2269999999999999</v>
       </c>
       <c r="J44">
         <v>-0.2</v>
@@ -2581,7 +2618,7 @@
         <v>19</v>
       </c>
       <c r="L44">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M44">
         <v>18.3</v>
@@ -2596,12 +2633,12 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45742.65625</v>
       </c>
       <c r="B45">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C45">
         <v>19.2</v>
@@ -2613,16 +2650,16 @@
         <v>-0.1</v>
       </c>
       <c r="F45">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="G45">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H45">
         <v>19</v>
       </c>
       <c r="I45">
-        <v>2.227</v>
+        <v>2.2269999999999999</v>
       </c>
       <c r="J45">
         <v>-0.2</v>
@@ -2631,7 +2668,7 @@
         <v>19</v>
       </c>
       <c r="L45">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M45">
         <v>18.3</v>
@@ -2646,42 +2683,42 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45742.66666666667</v>
+        <v>45742.666666666672</v>
       </c>
       <c r="B46">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C46">
         <v>19.3</v>
       </c>
       <c r="D46">
-        <v>2.209</v>
+        <v>2.2090000000000001</v>
       </c>
       <c r="E46">
         <v>-0.1</v>
       </c>
       <c r="F46">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="G46">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H46">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="I46">
-        <v>2.231</v>
+        <v>2.2309999999999999</v>
       </c>
       <c r="J46">
         <v>-0.2</v>
       </c>
       <c r="K46">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="L46">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M46">
         <v>18.3</v>
@@ -2696,18 +2733,18 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45742.67708333333</v>
+        <v>45742.677083333328</v>
       </c>
       <c r="B47">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C47">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="D47">
-        <v>2.209</v>
+        <v>2.2090000000000001</v>
       </c>
       <c r="E47">
         <v>-0.1</v>
@@ -2716,10 +2753,10 @@
         <v>19.8</v>
       </c>
       <c r="G47">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H47">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="I47">
         <v>2.226</v>
@@ -2728,16 +2765,16 @@
         <v>-0.2</v>
       </c>
       <c r="K47">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="L47">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M47">
         <v>18.3</v>
       </c>
       <c r="N47">
-        <v>3.811</v>
+        <v>3.8109999999999999</v>
       </c>
       <c r="O47">
         <v>-0.1</v>
@@ -2746,18 +2783,18 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45742.6875</v>
       </c>
       <c r="B48">
-        <v>0.402</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="C48">
         <v>19.5</v>
       </c>
       <c r="D48">
-        <v>2.209</v>
+        <v>2.2090000000000001</v>
       </c>
       <c r="E48">
         <v>-0.1</v>
@@ -2766,25 +2803,25 @@
         <v>20</v>
       </c>
       <c r="G48">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H48">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="I48">
-        <v>2.231</v>
+        <v>2.2309999999999999</v>
       </c>
       <c r="J48">
         <v>-0.2</v>
       </c>
       <c r="K48">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="L48">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M48">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="N48">
         <v>3.819</v>
@@ -2796,18 +2833,18 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45742.69791666667</v>
+        <v>45742.697916666672</v>
       </c>
       <c r="B49">
-        <v>0.402</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="C49">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D49">
-        <v>2.203</v>
+        <v>2.2029999999999998</v>
       </c>
       <c r="E49">
         <v>-0.1</v>
@@ -2816,25 +2853,25 @@
         <v>20.3</v>
       </c>
       <c r="G49">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H49">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="I49">
-        <v>2.231</v>
+        <v>2.2309999999999999</v>
       </c>
       <c r="J49">
         <v>-0.2</v>
       </c>
       <c r="K49">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="L49">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M49">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="N49">
         <v>3.81</v>
@@ -2846,18 +2883,18 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45742.70833333333</v>
+        <v>45742.708333333328</v>
       </c>
       <c r="B50">
-        <v>0.402</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="C50">
         <v>19.8</v>
       </c>
       <c r="D50">
-        <v>2.203</v>
+        <v>2.2029999999999998</v>
       </c>
       <c r="E50">
         <v>-0.1</v>
@@ -2866,13 +2903,13 @@
         <v>20.6</v>
       </c>
       <c r="G50">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H50">
         <v>19.2</v>
       </c>
       <c r="I50">
-        <v>2.236</v>
+        <v>2.2360000000000002</v>
       </c>
       <c r="J50">
         <v>-0.2</v>
@@ -2881,13 +2918,13 @@
         <v>19.2</v>
       </c>
       <c r="L50">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M50">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="N50">
-        <v>3.818</v>
+        <v>3.8180000000000001</v>
       </c>
       <c r="O50">
         <v>-0.1</v>
@@ -2896,18 +2933,18 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45742.71875</v>
       </c>
       <c r="B51">
-        <v>0.402</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="C51">
         <v>20</v>
       </c>
       <c r="D51">
-        <v>2.203</v>
+        <v>2.2029999999999998</v>
       </c>
       <c r="E51">
         <v>-0.1</v>
@@ -2916,13 +2953,13 @@
         <v>20.8</v>
       </c>
       <c r="G51">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H51">
         <v>19.2</v>
       </c>
       <c r="I51">
-        <v>2.236</v>
+        <v>2.2360000000000002</v>
       </c>
       <c r="J51">
         <v>-0.2</v>
@@ -2931,10 +2968,10 @@
         <v>19.2</v>
       </c>
       <c r="L51">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M51">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="N51">
         <v>3.81</v>
@@ -2946,18 +2983,18 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45742.72916666667</v>
+        <v>45742.729166666672</v>
       </c>
       <c r="B52">
-        <v>0.402</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="C52">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="D52">
-        <v>2.203</v>
+        <v>2.2029999999999998</v>
       </c>
       <c r="E52">
         <v>-0.1</v>
@@ -2966,13 +3003,13 @@
         <v>21.1</v>
       </c>
       <c r="G52">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H52">
         <v>19.2</v>
       </c>
       <c r="I52">
-        <v>2.235</v>
+        <v>2.2349999999999999</v>
       </c>
       <c r="J52">
         <v>-0.2</v>
@@ -2981,10 +3018,10 @@
         <v>19.2</v>
       </c>
       <c r="L52">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M52">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="N52">
         <v>3.81</v>
@@ -2996,18 +3033,18 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>45742.73958333333</v>
+        <v>45742.739583333328</v>
       </c>
       <c r="B53">
-        <v>0.402</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="C53">
         <v>20.2</v>
       </c>
       <c r="D53">
-        <v>2.203</v>
+        <v>2.2029999999999998</v>
       </c>
       <c r="E53">
         <v>-0.1</v>
@@ -3016,13 +3053,13 @@
         <v>21.3</v>
       </c>
       <c r="G53">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H53">
         <v>19.3</v>
       </c>
       <c r="I53">
-        <v>2.239</v>
+        <v>2.2389999999999999</v>
       </c>
       <c r="J53">
         <v>-0.2</v>
@@ -3031,10 +3068,10 @@
         <v>19.3</v>
       </c>
       <c r="L53">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M53">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="N53">
         <v>3.81</v>
@@ -3046,15 +3083,15 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45742.75</v>
       </c>
       <c r="B54">
-        <v>0.401</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="C54">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="D54">
         <v>2.206</v>
@@ -3066,25 +3103,25 @@
         <v>21.6</v>
       </c>
       <c r="G54">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H54">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="I54">
-        <v>2.239</v>
+        <v>2.2389999999999999</v>
       </c>
       <c r="J54">
         <v>-0.2</v>
       </c>
       <c r="K54">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="L54">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M54">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="N54">
         <v>3.819</v>
@@ -3096,18 +3133,18 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>45742.76041666667</v>
+        <v>45742.760416666672</v>
       </c>
       <c r="B55">
-        <v>0.401</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="C55">
         <v>20.5</v>
       </c>
       <c r="D55">
-        <v>2.207</v>
+        <v>2.2069999999999999</v>
       </c>
       <c r="E55">
         <v>-0.1</v>
@@ -3116,10 +3153,10 @@
         <v>21.8</v>
       </c>
       <c r="G55">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H55">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="I55">
         <v>2.238</v>
@@ -3128,13 +3165,13 @@
         <v>-0.2</v>
       </c>
       <c r="K55">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="L55">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M55">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="N55">
         <v>3.819</v>
@@ -3146,9 +3183,9 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>45742.77083333333</v>
+        <v>45742.770833333328</v>
       </c>
       <c r="B56">
         <v>0.4</v>
@@ -3157,7 +3194,7 @@
         <v>20.7</v>
       </c>
       <c r="D56">
-        <v>2.212</v>
+        <v>2.2120000000000002</v>
       </c>
       <c r="E56">
         <v>-0.1</v>
@@ -3166,7 +3203,7 @@
         <v>21.9</v>
       </c>
       <c r="G56">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H56">
         <v>19.5</v>
@@ -3181,10 +3218,10 @@
         <v>19.5</v>
       </c>
       <c r="L56">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M56">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="N56">
         <v>3.819</v>
@@ -3196,7 +3233,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45742.78125</v>
       </c>
@@ -3207,7 +3244,7 @@
         <v>20.8</v>
       </c>
       <c r="D57">
-        <v>2.213</v>
+        <v>2.2130000000000001</v>
       </c>
       <c r="E57">
         <v>-0.1</v>
@@ -3216,7 +3253,7 @@
         <v>22.1</v>
       </c>
       <c r="G57">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H57">
         <v>19.5</v>
@@ -3231,10 +3268,10 @@
         <v>19.5</v>
       </c>
       <c r="L57">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M57">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="N57">
         <v>3.819</v>
@@ -3246,9 +3283,9 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>45742.79166666667</v>
+        <v>45742.791666666672</v>
       </c>
       <c r="B58">
         <v>0.4</v>
@@ -3266,10 +3303,10 @@
         <v>22.2</v>
       </c>
       <c r="G58">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H58">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="I58">
         <v>2.246</v>
@@ -3278,13 +3315,13 @@
         <v>-0.2</v>
       </c>
       <c r="K58">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L58">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M58">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="N58">
         <v>3.81</v>
@@ -3296,9 +3333,9 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>45742.80208333333</v>
+        <v>45742.802083333328</v>
       </c>
       <c r="B59">
         <v>0.4</v>
@@ -3307,7 +3344,7 @@
         <v>21</v>
       </c>
       <c r="D59">
-        <v>2.22</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="E59">
         <v>-0.1</v>
@@ -3316,13 +3353,13 @@
         <v>22.3</v>
       </c>
       <c r="G59">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H59">
         <v>19.7</v>
       </c>
       <c r="I59">
-        <v>2.245</v>
+        <v>2.2450000000000001</v>
       </c>
       <c r="J59">
         <v>-0.2</v>
@@ -3331,13 +3368,13 @@
         <v>19.7</v>
       </c>
       <c r="L59">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M59">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="N59">
-        <v>3.811</v>
+        <v>3.8109999999999999</v>
       </c>
       <c r="O59">
         <v>-0.1</v>
@@ -3346,12 +3383,12 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>45742.8125</v>
       </c>
       <c r="B60">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="C60">
         <v>21.1</v>
@@ -3366,13 +3403,13 @@
         <v>22.4</v>
       </c>
       <c r="G60">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H60">
         <v>19.8</v>
       </c>
       <c r="I60">
-        <v>2.244</v>
+        <v>2.2440000000000002</v>
       </c>
       <c r="J60">
         <v>-0.2</v>
@@ -3381,10 +3418,10 @@
         <v>19.8</v>
       </c>
       <c r="L60">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M60">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="N60">
         <v>3.81</v>
@@ -3396,12 +3433,12 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>45742.82291666667</v>
+        <v>45742.822916666672</v>
       </c>
       <c r="B61">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="C61">
         <v>21.2</v>
@@ -3416,13 +3453,13 @@
         <v>22.5</v>
       </c>
       <c r="G61">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H61">
         <v>19.8</v>
       </c>
       <c r="I61">
-        <v>2.244</v>
+        <v>2.2440000000000002</v>
       </c>
       <c r="J61">
         <v>-0.2</v>
@@ -3431,10 +3468,10 @@
         <v>19.8</v>
       </c>
       <c r="L61">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M61">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="N61">
         <v>3.81</v>
@@ -3446,18 +3483,18 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>45742.83333333333</v>
+        <v>45742.833333333328</v>
       </c>
       <c r="B62">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="C62">
         <v>21.3</v>
       </c>
       <c r="D62">
-        <v>2.228</v>
+        <v>2.2280000000000002</v>
       </c>
       <c r="E62">
         <v>-0.1</v>
@@ -3466,25 +3503,25 @@
         <v>22.6</v>
       </c>
       <c r="G62">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H62">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="I62">
-        <v>2.248</v>
+        <v>2.2480000000000002</v>
       </c>
       <c r="J62">
         <v>-0.2</v>
       </c>
       <c r="K62">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="L62">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M62">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="N62">
         <v>3.82</v>
@@ -3496,18 +3533,18 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>45742.84375</v>
       </c>
       <c r="B63">
-        <v>0.398</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="C63">
         <v>21.4</v>
       </c>
       <c r="D63">
-        <v>2.229</v>
+        <v>2.2290000000000001</v>
       </c>
       <c r="E63">
         <v>-0.1</v>
@@ -3516,13 +3553,13 @@
         <v>22.6</v>
       </c>
       <c r="G63">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H63">
         <v>20</v>
       </c>
       <c r="I63">
-        <v>2.247</v>
+        <v>2.2469999999999999</v>
       </c>
       <c r="J63">
         <v>-0.2</v>
@@ -3531,10 +3568,10 @@
         <v>20</v>
       </c>
       <c r="L63">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M63">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="N63">
         <v>3.819</v>
@@ -3546,18 +3583,18 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>45742.85416666667</v>
+        <v>45742.854166666672</v>
       </c>
       <c r="B64">
-        <v>0.398</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="C64">
         <v>21.5</v>
       </c>
       <c r="D64">
-        <v>2.235</v>
+        <v>2.2349999999999999</v>
       </c>
       <c r="E64">
         <v>-0.1</v>
@@ -3566,7 +3603,7 @@
         <v>22.7</v>
       </c>
       <c r="G64">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H64">
         <v>20</v>
@@ -3581,10 +3618,10 @@
         <v>20</v>
       </c>
       <c r="L64">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M64">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="N64">
         <v>3.819</v>
@@ -3596,18 +3633,18 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>45742.86458333333</v>
+        <v>45742.864583333328</v>
       </c>
       <c r="B65">
-        <v>0.398</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="C65">
         <v>21.6</v>
       </c>
       <c r="D65">
-        <v>2.236</v>
+        <v>2.2360000000000002</v>
       </c>
       <c r="E65">
         <v>-0.1</v>
@@ -3616,25 +3653,25 @@
         <v>22.7</v>
       </c>
       <c r="G65">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H65">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="I65">
-        <v>2.249</v>
+        <v>2.2490000000000001</v>
       </c>
       <c r="J65">
         <v>-0.2</v>
       </c>
       <c r="K65">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="L65">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M65">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="N65">
         <v>3.819</v>
@@ -3646,12 +3683,12 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>45742.875</v>
       </c>
       <c r="B66">
-        <v>0.398</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="C66">
         <v>21.6</v>
@@ -3666,13 +3703,13 @@
         <v>22.7</v>
       </c>
       <c r="G66">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="H66">
         <v>20.2</v>
       </c>
       <c r="I66">
-        <v>2.249</v>
+        <v>2.2490000000000001</v>
       </c>
       <c r="J66">
         <v>-0.2</v>
@@ -3681,13 +3718,13 @@
         <v>20.2</v>
       </c>
       <c r="L66">
-        <v>0.399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="M66">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="N66">
-        <v>3.817</v>
+        <v>3.8170000000000002</v>
       </c>
       <c r="O66">
         <v>-0.1</v>
